--- a/fastqFiles/fastq_0673.xlsx
+++ b/fastqFiles/fastq_0673.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED042C00-7260-7942-B1E1-FABE1EA989DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423F57C5-C9A5-BA46-B929-303FA39AA115}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="18520" windowHeight="9840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="24">
   <si>
     <t>libraryDate</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>S.GISH</t>
+  </si>
+  <si>
+    <t>fullRNASEQ</t>
   </si>
 </sst>
 </file>
@@ -454,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" activeCellId="1" sqref="B3:B16 E2:E16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -494,7 +497,7 @@
         <v>673</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -514,7 +517,7 @@
         <v>673</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -534,7 +537,7 @@
         <v>673</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -554,7 +557,7 @@
         <v>673</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -574,7 +577,7 @@
         <v>673</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -594,7 +597,7 @@
         <v>673</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -614,7 +617,7 @@
         <v>673</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -634,7 +637,7 @@
         <v>673</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
@@ -654,7 +657,7 @@
         <v>673</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
@@ -674,7 +677,7 @@
         <v>673</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -694,7 +697,7 @@
         <v>673</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
@@ -714,7 +717,7 @@
         <v>673</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
@@ -734,7 +737,7 @@
         <v>673</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F14" t="s">
         <v>19</v>
@@ -754,7 +757,7 @@
         <v>673</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
@@ -774,7 +777,7 @@
         <v>673</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F16" t="s">
         <v>21</v>

--- a/fastqFiles/fastq_0673.xlsx
+++ b/fastqFiles/fastq_0673.xlsx
@@ -49,49 +49,49 @@
     <t xml:space="preserve">fullRNASEQ</t>
   </si>
   <si>
-    <t xml:space="preserve">sequence/run_0673_samples/run_673_s_4_withindex_sequence_TGAGGTT.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0673_samples/run_673_s_4_withindex_sequence_GCTTAGA.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0673_samples/run_673_s_4_withindex_sequence_ATGACAG.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0673_samples/run_673_s_4_withindex_sequence_CACCTCC.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0673_samples/run_673_s_4_withindex_sequence_ATCGAGC.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0673_samples/run_673_s_4_withindex_sequence_TACTCTA.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0673_samples/run_673_s_4_withindex_sequence_AGACTGA.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0673_samples/run_673_s_4_withindex_sequence_CTTGGAA.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0673_samples/run_673_s_4_withindex_sequence_CCGATTA.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0673_samples/run_673_s_4_withindex_sequence_GGCAGCG.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0673_samples/run_673_s_4_withindex_sequence_CCATCAT.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0673_samples/run_673_s_4_withindex_sequence_TAACAAG.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0673_samples/run_673_s_4_withindex_sequence_GAGGCGT.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0673_samples/run_673_s_4_withindex_sequence_TTTAACT.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0673_samples/run_673_s_4_withindex_sequence_GGTCCTC.fastq.gz</t>
+    <t xml:space="preserve">run_673_s_4_withindex_sequence_TGAGGTT.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_673_s_4_withindex_sequence_GCTTAGA.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_673_s_4_withindex_sequence_ATGACAG.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_673_s_4_withindex_sequence_CACCTCC.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_673_s_4_withindex_sequence_ATCGAGC.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_673_s_4_withindex_sequence_TACTCTA.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_673_s_4_withindex_sequence_AGACTGA.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_673_s_4_withindex_sequence_CTTGGAA.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_673_s_4_withindex_sequence_CCGATTA.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_673_s_4_withindex_sequence_GGCAGCG.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_673_s_4_withindex_sequence_CCATCAT.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_673_s_4_withindex_sequence_TAACAAG.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_673_s_4_withindex_sequence_GAGGCGT.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_673_s_4_withindex_sequence_TTTAACT.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_673_s_4_withindex_sequence_GGTCCTC.fastq.gz</t>
   </si>
 </sst>
 </file>
@@ -210,7 +210,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C16"/>
+      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/fastqFiles/fastq_0673.xlsx
+++ b/fastqFiles/fastq_0673.xlsx
@@ -442,7 +442,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -475,7 +475,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -508,7 +508,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -578,7 +578,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -613,7 +613,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -718,7 +718,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -788,7 +788,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -854,7 +854,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -928,7 +928,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
